--- a/data/trans_camb/P57GLOBAL_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P57GLOBAL_R-Estudios-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>7.542520152214271</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-7.384139699306125</v>
+        <v>-7.384139699306102</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.107353011260677</v>
+        <v>-7.271351684477885</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.170840607713552</v>
+        <v>1.819700818898249</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-12.98716195379895</v>
+        <v>-12.94644530048308</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.227277764344794</v>
+        <v>-5.227947240344707</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>5.449488753783694</v>
+        <v>5.457203746162619</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-10.64105036713733</v>
+        <v>-10.31896114608828</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-4.793249370718384</v>
+        <v>-4.875737293109921</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>5.015446578321202</v>
+        <v>5.249644011684973</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-10.31519206692275</v>
+        <v>-10.33130981969298</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9265985040202575</v>
+        <v>0.7246560791833043</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.720072589253748</v>
+        <v>9.519160863853807</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-3.827730759664382</v>
+        <v>-3.559190718650441</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.325839242665426</v>
+        <v>1.555078006678052</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>11.79368946114553</v>
+        <v>11.68790204620611</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-3.378464426656221</v>
+        <v>-3.80140386028344</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3632983565099447</v>
+        <v>0.3023925836170316</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>9.771069539385874</v>
+        <v>9.969336926056039</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-4.904685421471023</v>
+        <v>-4.735340003600915</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.09707304616307656</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.09503467268760524</v>
+        <v>-0.09503467268760495</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.08954446063160018</v>
+        <v>-0.09330921151531468</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.02799650919416831</v>
+        <v>0.0237534427594487</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1691289203248488</v>
+        <v>-0.1665280912521672</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.06465377901112523</v>
+        <v>-0.06442599945864609</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.06778010380533463</v>
+        <v>0.06728953771927593</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1308437980727641</v>
+        <v>-0.1279798882793988</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.06080961122311729</v>
+        <v>-0.06239757298288919</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.06405993652596814</v>
+        <v>0.06668101889824551</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1313958218318431</v>
+        <v>-0.1310543472295752</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.01352802766804363</v>
+        <v>0.009697028991467986</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1304787251416903</v>
+        <v>0.129889658367359</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.05191793045475789</v>
+        <v>-0.04751514936978521</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.01724231349515402</v>
+        <v>0.01989896916436194</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1516475992275903</v>
+        <v>0.1512212119671451</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.04358050905805996</v>
+        <v>-0.04903368607051783</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.004850232919856686</v>
+        <v>0.003643993574863835</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1281877160033673</v>
+        <v>0.1313213965558158</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.0642829192364969</v>
+        <v>-0.06189683672468583</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>15.47837026706556</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-3.545727079956884</v>
+        <v>-3.545727079956895</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>6.782593152670879</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.621904484516748</v>
+        <v>-3.656862722894427</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>12.49256861565996</v>
+        <v>12.41766499645017</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.770626484889937</v>
+        <v>-7.024411185411358</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.778850111827398</v>
+        <v>3.857085182596236</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>14.14101894608612</v>
+        <v>14.11951652446776</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-6.540567215290499</v>
+        <v>-6.525738580902998</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.6646937167342368</v>
+        <v>0.6395671552858782</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>14.14830054364333</v>
+        <v>14.22416438680067</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-6.124843024097082</v>
+        <v>-5.786546683210752</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.6155173247804</v>
+        <v>2.501489569938134</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>18.49896169030356</v>
+        <v>18.09217494311763</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.09276508056616774</v>
+        <v>-0.2994777500245431</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.882104171336097</v>
+        <v>9.903862315844428</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>19.73576814055521</v>
+        <v>19.56880131244097</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-0.4794969983442456</v>
+        <v>-0.4571909019211773</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.0534099838738</v>
+        <v>5.123267124672203</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>18.24429989967983</v>
+        <v>18.25233424163458</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-1.471413333614546</v>
+        <v>-1.189982259728362</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.2284406722815283</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.05233033348450393</v>
+        <v>-0.05233033348450409</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.09849427056999516</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.05236290939207826</v>
+        <v>-0.05312680088683931</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.181055313950563</v>
+        <v>0.1778849478448539</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.09797530576652176</v>
+        <v>-0.1010728383691506</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.05352630760308292</v>
+        <v>0.05496477037888296</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2003857391529035</v>
+        <v>0.2012168900942257</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.09395061372789464</v>
+        <v>-0.09243594663835096</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.009607499681276862</v>
+        <v>0.009406619059877002</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2037437581836437</v>
+        <v>0.2043398595770893</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.08784617239620597</v>
+        <v>-0.08344122020258926</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.03984670796727968</v>
+        <v>0.03780865649856512</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2833039561752735</v>
+        <v>0.2755934146051368</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.001990583509156386</v>
+        <v>-0.004526992014819275</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.146672937619381</v>
+        <v>0.1478472549768579</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2952253948162062</v>
+        <v>0.2938255318178494</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.00760450176553104</v>
+        <v>-0.00684117591763355</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07533089015667849</v>
+        <v>0.07634537408540926</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2725473528219482</v>
+        <v>0.2711982915410805</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.02183495237986344</v>
+        <v>-0.01760323803689644</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>8.141937003023713</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-6.673079743347399</v>
+        <v>-6.67307974334741</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>2.93618012078537</v>
@@ -1092,7 +1092,7 @@
         <v>9.443549575823894</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-7.010970497431401</v>
+        <v>-7.010970497431412</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.713682849611052</v>
+        <v>-7.836036594825348</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.913534330805796</v>
+        <v>1.722375845102114</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-12.58431158207367</v>
+        <v>-12.51547803772061</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.775179874055809</v>
+        <v>-3.96458861991986</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>4.797584246650582</v>
+        <v>5.472234824983605</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-12.78867269860017</v>
+        <v>-12.37166952373779</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.415585242518094</v>
+        <v>-3.343452890501203</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>5.488772498732169</v>
+        <v>5.538023766638641</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-10.98530924380618</v>
+        <v>-10.9641362689594</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.435110223695885</v>
+        <v>4.868941331342374</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>14.25739842875103</v>
+        <v>13.38063350529182</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.6033994912035826</v>
+        <v>-0.6903296153510232</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.307811575048296</v>
+        <v>8.78303179585817</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>16.87872541981882</v>
+        <v>17.2220959650441</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-1.83569799315657</v>
+        <v>-1.361976378485102</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.099401428136224</v>
+        <v>5.003577601484444</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>13.40834000571184</v>
+        <v>13.48174579664741</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-2.871739526914011</v>
+        <v>-3.154973132189216</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1187741677233962</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.09734655185536235</v>
+        <v>-0.09734655185536252</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.04539534317516661</v>
@@ -1197,7 +1197,7 @@
         <v>0.1414796753308989</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.105035698893397</v>
+        <v>-0.1050356988933972</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.09460193209050309</v>
+        <v>-0.107525250156718</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.03958597107712999</v>
+        <v>0.02339196860913758</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1772843223291932</v>
+        <v>-0.1732046422066149</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.0438101928987432</v>
+        <v>-0.06036765124667736</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.07132446377039746</v>
+        <v>0.08057361556298072</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1875652756091805</v>
+        <v>-0.1829175441090685</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.04927487290727905</v>
+        <v>-0.04893059232403133</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.07933773502995177</v>
+        <v>0.08094934047919035</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1585599274122554</v>
+        <v>-0.1590477993270455</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.08164416071206106</v>
+        <v>0.07482376302072248</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2190409158485548</v>
+        <v>0.2070391269556765</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.009361630341950299</v>
+        <v>-0.01085123814203258</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.150997305533783</v>
+        <v>0.1413504743692706</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2754438852150876</v>
+        <v>0.2841130382757896</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.03006089655562895</v>
+        <v>-0.02249312561504085</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07833657981610748</v>
+        <v>0.07858103248632349</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2104138109685911</v>
+        <v>0.2106369407048137</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.04464813961761015</v>
+        <v>-0.04753366961381641</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>12.46773610753628</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-6.972401553958207</v>
+        <v>-6.972401553958218</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.7350396602222364</v>
@@ -1306,7 +1306,7 @@
         <v>11.97231623796522</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-6.55812404587135</v>
+        <v>-6.558124045871327</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.950698303414733</v>
+        <v>-3.724554392373022</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>9.284889888099118</v>
+        <v>9.202876783512991</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-8.718169063614896</v>
+        <v>-8.529376252705271</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.7426223790276092</v>
+        <v>1.01797101453009</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>10.4464029860413</v>
+        <v>10.61152465172129</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-9.060138372706335</v>
+        <v>-9.154308060112982</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.8673476813178335</v>
+        <v>-0.9119700328763037</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>10.57410190589264</v>
+        <v>10.46336101544261</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-8.165081167910483</v>
+        <v>-8.221072824515149</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6629748476500019</v>
+        <v>0.6529832846527758</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>13.56323009482688</v>
+        <v>13.40278336490628</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-3.940007361216522</v>
+        <v>-3.536273143985586</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.068421233450525</v>
+        <v>5.228298345903567</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>14.31775410497437</v>
+        <v>14.66646634501723</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-4.818075529481739</v>
+        <v>-4.909894704839314</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.253542191210601</v>
+        <v>2.297348354807788</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>13.41830269409872</v>
+        <v>13.35570259612995</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-4.989030859179608</v>
+        <v>-4.967816892935952</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.1724609551836315</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.09644630120079485</v>
+        <v>-0.096446301200795</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.0102981606196051</v>
@@ -1411,7 +1411,7 @@
         <v>0.1677363036029852</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.09188159284800794</v>
+        <v>-0.09188159284800763</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.05532862435381685</v>
+        <v>-0.05226551016867573</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1295210621995942</v>
+        <v>0.1282543140857441</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1212777217147894</v>
+        <v>-0.1191151010974382</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.01015666347236495</v>
+        <v>0.01367852976133696</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.142310367903534</v>
+        <v>0.1453574297707147</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1238986777301597</v>
+        <v>-0.1242808301323491</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.01178576924107647</v>
+        <v>-0.01273371521886009</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1465379135204175</v>
+        <v>0.1446959822499436</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.112685374970983</v>
+        <v>-0.1139651684803004</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.009473952732920957</v>
+        <v>0.009110761590905438</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1966945885194085</v>
+        <v>0.1947125353104759</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.05694415358861252</v>
+        <v>-0.05000547288528474</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.07163768233003596</v>
+        <v>0.07364418585965339</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2010452037312322</v>
+        <v>0.2077829101032313</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.06793865086238095</v>
+        <v>-0.06890903949648326</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.03203971946423243</v>
+        <v>0.03244659563671427</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1906316435187268</v>
+        <v>0.1897189290754769</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.07024480252680822</v>
+        <v>-0.07019038800820046</v>
       </c>
     </row>
     <row r="28">
